--- a/resources/experiment 2/metrics/MAPE/average time/Edema macular diabético.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Edema macular diabético.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1802482372333880</v>
+        <v>1802482372333881</v>
       </c>
       <c r="C2" t="n">
-        <v>1802482372333880</v>
+        <v>1802482372333881</v>
       </c>
       <c r="D2" t="n">
-        <v>1802482372333880</v>
+        <v>1802482372333879</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07419294746675544</v>
+        <v>0.01633735883174511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07419294746675544</v>
+        <v>0.01661492937183706</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07419294746675544</v>
+        <v>2699500889566.902</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30802524956166.89</v>
+        <v>0.01965645267219591</v>
       </c>
       <c r="C4" t="n">
-        <v>30802524956166.89</v>
+        <v>0.02026980981117747</v>
       </c>
       <c r="D4" t="n">
-        <v>30802524956166.89</v>
+        <v>0.05948685421572617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2046027627296707</v>
+        <v>9812119808140.598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2046027627296707</v>
+        <v>9822558771007.205</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2046027627296707</v>
+        <v>78938700645022.83</v>
       </c>
     </row>
   </sheetData>
